--- a/data/input_file.xlsx
+++ b/data/input_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelh\OneDrive - ALAN ALLMAN ASSOCIATES\Bureau\Git\linkedin-link-finder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BE0C7-DB00-4E38-93B2-652E7199D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9096CA-4839-41CD-92B3-4079378B9DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="710" windowWidth="19230" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="230" windowWidth="19230" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="477">
   <si>
     <t>Nom</t>
   </si>
@@ -1459,6 +1459,15 @@
   </si>
   <si>
     <t>Siderlog Conseil</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>NAFA Louisa</t>
+  </si>
+  <si>
+    <t>TIGHILT Mélyssa</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1872,7 @@
   <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1905,12 +1914,24 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>475</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
